--- a/IT13113100_assestReg.xlsx
+++ b/IT13113100_assestReg.xlsx
@@ -60,14 +60,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page
@@ -83,14 +85,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -106,14 +110,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -129,14 +135,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -152,14 +160,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -175,14 +185,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -198,14 +210,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the format of the information asset e.g. database record, doc / xls / jpg file
@@ -221,14 +235,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -243,14 +259,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -265,14 +283,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -287,14 +307,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -309,14 +331,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -331,14 +355,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -354,14 +380,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -377,14 +405,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -400,14 +430,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -423,14 +455,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -446,14 +480,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the format of the information asset e.g. database record, doc / xls / jpg file
@@ -469,14 +505,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -491,14 +529,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -513,14 +553,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -535,14 +577,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -557,14 +601,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -579,14 +625,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -602,14 +650,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -625,14 +675,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -648,14 +700,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -671,14 +725,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -694,14 +750,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the format of the information asset e.g. database record, doc / xls / jpg file
@@ -717,14 +775,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -739,14 +799,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -761,14 +823,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -783,14 +847,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -805,14 +871,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -837,14 +905,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page
@@ -860,14 +930,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -883,14 +955,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -906,14 +980,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -929,14 +1005,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -952,14 +1030,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -975,14 +1055,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -997,14 +1079,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -1019,14 +1103,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -1041,14 +1127,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -1063,14 +1151,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -1085,14 +1175,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -1108,14 +1200,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -1131,14 +1225,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -1154,14 +1250,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -1177,14 +1275,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -1200,14 +1300,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -1222,14 +1324,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -1244,14 +1348,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -1266,14 +1372,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -1288,14 +1396,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -1320,14 +1430,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page
@@ -1343,14 +1455,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -1366,14 +1480,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -1389,14 +1505,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -1412,14 +1530,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -1435,14 +1555,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -1458,14 +1580,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -1480,14 +1604,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -1502,14 +1628,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -1524,14 +1652,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -1546,14 +1676,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -1569,14 +1701,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -1592,14 +1726,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -1615,14 +1751,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -1638,14 +1776,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -1661,14 +1801,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -1683,14 +1825,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -1705,14 +1849,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -1727,14 +1873,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -1759,14 +1907,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page</t>
@@ -1781,14 +1931,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -1803,14 +1955,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -1825,14 +1979,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -1847,14 +2003,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -1869,14 +2027,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -1891,14 +2051,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -1923,14 +2085,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page
@@ -1946,14 +2110,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -1969,14 +2135,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -1992,14 +2160,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -2015,14 +2185,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -2038,14 +2210,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -2061,14 +2235,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the format of the information asset e.g. database record, doc / xls / jpg file
@@ -2084,14 +2260,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -2106,14 +2284,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -2128,14 +2308,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -2150,14 +2332,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -2172,14 +2356,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -2194,14 +2380,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -2216,14 +2404,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Asset Identification Number, if any.
@@ -2239,14 +2429,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Owner - Role in Org Chart 
@@ -2262,14 +2454,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Custodian - Role in Org Chart
@@ -2285,14 +2479,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Users - Roles in Org Chart
@@ -2308,14 +2504,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the Server IP Address &amp; name &amp; specific deirectory
@@ -2331,14 +2529,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the format of the information asset e.g. database record, doc / xls / jpg file
@@ -2354,14 +2554,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -2376,14 +2578,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup Freqency and media</t>
@@ -2398,14 +2602,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Backup / Backup Media Location including offsite backup</t>
@@ -2420,14 +2626,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter confidetiality requirements for the asset</t>
@@ -2442,14 +2650,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Integrity requirements for the asset</t>
@@ -2464,14 +2674,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enteravailability requirements for the asset</t>
@@ -2496,14 +2708,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page</t>
@@ -2518,14 +2732,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the department / function Name</t>
@@ -2540,14 +2756,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the name of the reporting authority to which the role reports</t>
@@ -2562,14 +2780,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the access rights of the role to high value Information assets</t>
@@ -2584,14 +2804,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the role which can be used as substitute in case of necessity</t>
@@ -2606,14 +2828,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the specific NDA clause requirements, if any as per the business requirement</t>
@@ -2628,14 +2852,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the KRA for the role.</t>
@@ -2650,14 +2876,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the min.capabilities as per business requirements, of a person carrying the role
@@ -2673,14 +2901,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -2695,14 +2925,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -2717,14 +2949,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -2739,14 +2973,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the department / function Name</t>
@@ -2761,14 +2997,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the name of the reporting authority to which the role reports</t>
@@ -2783,14 +3021,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the access rights of the role to high value Information assets</t>
@@ -2805,14 +3045,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the role which can be used as substitute in case of necessity</t>
@@ -2827,14 +3069,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the specific NDA clause requirements, if any as per the business requirement</t>
@@ -2849,14 +3093,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the KRA for the role.</t>
@@ -2871,14 +3117,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the min.capabilities as per business requirements, of a person carrying the role
@@ -2894,14 +3142,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -2916,14 +3166,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -2938,14 +3190,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -2970,14 +3224,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page
@@ -2993,14 +3249,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -3015,14 +3273,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -3037,14 +3297,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -3059,14 +3321,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -3081,14 +3345,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -3103,14 +3369,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -3135,14 +3403,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Click for Index Page</t>
@@ -3157,14 +3427,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the confidentiality requiment from the person carrying the role.</t>
@@ -3179,14 +3451,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the integrity requirement of a person carying the role</t>
@@ -3201,14 +3475,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-          </rPr>
-          <t>MOHAN KAMAT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAN KAMAT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the availability requirement of a person carryingthe role</t>
@@ -4163,17 +4439,17 @@
     <t>Evaluators Signature :  _____________________</t>
   </si>
   <si>
-    <t>Practical Number : Lab 6</t>
-  </si>
-  <si>
     <t>Date of Submission: 17/09/2016</t>
+  </si>
+  <si>
+    <t>Practical Number : Lab 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4181,10 +4457,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4209,6 +4487,7 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4220,17 +4499,20 @@
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4267,6 +4549,7 @@
       <sz val="12"/>
       <color indexed="58"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4278,6 +4561,7 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4342,13 +4626,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5022,6 +5299,27 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5059,42 +5357,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5116,14 +5378,41 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5143,23 +5432,14 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5180,6 +5460,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5238,27 +5536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6729,150 +7006,150 @@
   <dimension ref="C2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="3:7" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="53" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="G3" s="138"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="56" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="G5" s="141"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="3:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="58" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="3:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-    </row>
-    <row r="17" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-    </row>
-    <row r="18" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="139" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6904,53 +7181,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="113" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="90"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -6959,19 +7236,19 @@
       <c r="B7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="131">
+      <c r="A8" s="140">
         <v>15</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="140" t="s">
         <v>264</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -6980,179 +7257,179 @@
       <c r="D8" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="121">
         <f>COUNTIF($E34:$E36,"H")*3+COUNTIF($E34:$E36,"M")*2+COUNTIF($E34:$E36,"L")*1</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="135"/>
+      <c r="E9" s="144"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="135"/>
+      <c r="E10" s="144"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="144"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="34" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="135"/>
+      <c r="E12" s="144"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="135"/>
+      <c r="E13" s="144"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E14" s="135"/>
+      <c r="E14" s="144"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="144"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="34" t="s">
         <v>91</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="135"/>
+      <c r="E16" s="144"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="34" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="135"/>
+      <c r="E17" s="144"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="135"/>
+      <c r="E18" s="144"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="134"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="135"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="135"/>
+      <c r="E20" s="144"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E21" s="135"/>
+      <c r="E21" s="144"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="135"/>
+      <c r="E22" s="144"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="135"/>
+      <c r="E23" s="144"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="22" t="s">
         <v>109</v>
       </c>
@@ -7160,110 +7437,110 @@
         <f>-- I27</f>
         <v>0</v>
       </c>
-      <c r="E24" s="135"/>
+      <c r="E24" s="144"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="135"/>
+      <c r="E25" s="144"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="135"/>
+      <c r="E26" s="144"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="135"/>
+      <c r="E27" s="144"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E28" s="135"/>
+      <c r="E28" s="144"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="134"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="135"/>
+      <c r="E29" s="144"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="134"/>
-      <c r="B30" s="134"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="135"/>
+      <c r="E30" s="144"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="134"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="135"/>
+      <c r="E31" s="144"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="135"/>
+      <c r="E32" s="144"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="134"/>
-      <c r="B33" s="134"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E33" s="136"/>
+      <c r="E33" s="145"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
-      <c r="B34" s="134"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="14" t="s">
         <v>43</v>
       </c>
@@ -7275,8 +7552,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="14" t="s">
         <v>44</v>
       </c>
@@ -7288,8 +7565,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="14" t="s">
         <v>45</v>
       </c>
@@ -7301,11 +7578,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7374,17 +7651,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="IT1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="IQ2" t="s">
         <v>57</v>
       </c>
@@ -7393,9 +7670,9 @@
       </c>
     </row>
     <row r="3" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="IQ3" t="s">
         <v>58</v>
       </c>
@@ -7404,38 +7681,38 @@
       </c>
     </row>
     <row r="4" spans="1:254" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
       <c r="IQ4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:254" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
     </row>
     <row r="7" spans="1:254" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
     </row>
     <row r="8" spans="1:254" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
       <c r="E8" s="47"/>
       <c r="IT8" s="30" t="s">
         <v>57</v>
@@ -7522,53 +7799,53 @@
       </c>
     </row>
     <row r="18" spans="2:254" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="80"/>
       <c r="IT18" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="IT19" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B22" s="54"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="48" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B24" s="54"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="48" t="s">
         <v>83</v>
       </c>
@@ -7577,7 +7854,7 @@
       </c>
     </row>
     <row r="26" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="48" t="s">
         <v>84</v>
       </c>
@@ -7586,7 +7863,7 @@
       </c>
     </row>
     <row r="27" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="48" t="s">
         <v>85</v>
       </c>
@@ -7645,60 +7922,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:256" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:256" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="str">
+      <c r="A6" s="84" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="90"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="1:256" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -7707,19 +7984,19 @@
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A9" s="72">
+      <c r="A9" s="96">
         <v>1</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="99" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -7728,74 +8005,74 @@
       <c r="D9" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="93">
         <f>COUNTIF($E20:$E22,"H")*3+COUNTIF($E20:$E22,"M")*2+COUNTIF($E20:$E22,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="80"/>
+      <c r="E15" s="95"/>
       <c r="IS15" t="s">
         <v>24</v>
       </c>
@@ -7804,15 +8081,15 @@
       </c>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="95"/>
       <c r="IS16" t="s">
         <v>25</v>
       </c>
@@ -7821,15 +8098,15 @@
       </c>
     </row>
     <row r="17" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="95"/>
       <c r="IS17" t="s">
         <v>26</v>
       </c>
@@ -7838,30 +8115,30 @@
       </c>
     </row>
     <row r="18" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="95"/>
     </row>
     <row r="19" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
@@ -7874,8 +8151,8 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
@@ -7887,8 +8164,8 @@
       </c>
     </row>
     <row r="22" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
@@ -7900,17 +8177,17 @@
       </c>
     </row>
     <row r="23" spans="1:256" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A24" s="72">
+      <c r="A24" s="96">
         <v>2</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="99" t="s">
         <v>173</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -7919,124 +8196,124 @@
       <c r="D24" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="93">
         <f>COUNTIF($E35:$E37,"H")*3+COUNTIF($E35:$E37,"M")*2+COUNTIF($E35:$E37,"L")*1</f>
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="94"/>
     </row>
     <row r="26" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="80"/>
+      <c r="E28" s="95"/>
     </row>
     <row r="29" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="95"/>
     </row>
     <row r="30" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="80"/>
+      <c r="E30" s="95"/>
     </row>
     <row r="31" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="95"/>
     </row>
     <row r="32" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="95"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="95"/>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="6" t="s">
         <v>15</v>
       </c>
@@ -8048,8 +8325,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="6" t="s">
         <v>13</v>
       </c>
@@ -8061,8 +8338,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
@@ -8074,17 +8351,17 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="72">
+      <c r="A39" s="96">
         <v>3</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="99" t="s">
         <v>172</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -8093,124 +8370,124 @@
       <c r="D39" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="93">
         <f>COUNTIF($E50:$E52,"H")*3+COUNTIF($E50:$E52,"M")*2+COUNTIF($E50:$E52,"L")*1</f>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="79"/>
+      <c r="E40" s="94"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="80"/>
+      <c r="E41" s="95"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="80"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="95"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="80"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="80"/>
+      <c r="E45" s="95"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="80"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="80"/>
+      <c r="E47" s="95"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="80"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="76"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="80"/>
+      <c r="E49" s="95"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="6" t="s">
         <v>15</v>
       </c>
@@ -8222,8 +8499,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="6" t="s">
         <v>13</v>
       </c>
@@ -8235,8 +8512,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="74"/>
-      <c r="B52" s="77"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="6" t="s">
         <v>14</v>
       </c>
@@ -8262,6 +8539,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:B52"/>
+    <mergeCell ref="E39:E49"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B37"/>
+    <mergeCell ref="E24:E34"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -8270,13 +8554,6 @@
     <mergeCell ref="E9:E19"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B22"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B39:B52"/>
-    <mergeCell ref="E39:E49"/>
-    <mergeCell ref="A24:A37"/>
-    <mergeCell ref="B24:B37"/>
-    <mergeCell ref="E24:E34"/>
-    <mergeCell ref="A38:E38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E20:E22">
@@ -8397,60 +8674,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="102" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
     </row>
     <row r="8" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -8459,19 +8736,19 @@
       <c r="B8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="101"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="72">
+      <c r="A9" s="96">
         <v>4</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="99" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -8480,113 +8757,113 @@
       <c r="D9" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="93">
         <f>COUNTIF($E26:$E28,"H")*3+COUNTIF($E26:$E28,"M")*2+COUNTIF($E26:$E28,"L")*1</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="95"/>
+      <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="108"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="108"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="95"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="95"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="108"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="108"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="95"/>
+      <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="34" t="s">
         <v>40</v>
       </c>
@@ -8594,77 +8871,77 @@
         <f>D17:D19Server</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="95"/>
+      <c r="E19" s="108"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="95"/>
+      <c r="E20" s="108"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="95"/>
+      <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="95"/>
+      <c r="E22" s="108"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="95"/>
+      <c r="E23" s="108"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="95"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="95"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
@@ -8676,8 +8953,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
@@ -8689,8 +8966,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
@@ -8702,17 +8979,17 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="110"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="72">
+      <c r="A30" s="96">
         <v>5</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="99" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -8721,190 +8998,190 @@
       <c r="D30" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="93">
         <f>COUNTIF($E47:$E49,"H")*3+COUNTIF($E47:$E49,"M")*2+COUNTIF($E47:$E49,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="79"/>
+      <c r="E31" s="94"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="95"/>
+      <c r="E32" s="108"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="95"/>
+      <c r="E33" s="108"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="95"/>
+      <c r="E34" s="108"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="95"/>
+      <c r="E35" s="108"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="95"/>
+      <c r="E36" s="108"/>
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="95"/>
+      <c r="E37" s="108"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="95"/>
+      <c r="E38" s="108"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="95"/>
+      <c r="E39" s="108"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="95"/>
+      <c r="E40" s="108"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="108"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="95"/>
+      <c r="E42" s="108"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="95"/>
+      <c r="E43" s="108"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="95"/>
+      <c r="E44" s="108"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="95"/>
+      <c r="E45" s="108"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="95"/>
+      <c r="E46" s="108"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="6" t="s">
         <v>15</v>
       </c>
@@ -8916,8 +9193,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="6" t="s">
         <v>13</v>
       </c>
@@ -8929,8 +9206,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="74"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="6" t="s">
         <v>14</v>
       </c>
@@ -8942,14 +9219,19 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="94"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A9:A28"/>
+    <mergeCell ref="B9:B28"/>
+    <mergeCell ref="E9:E25"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
@@ -8957,11 +9239,6 @@
     <mergeCell ref="A30:A49"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="E30:E46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A9:A28"/>
-    <mergeCell ref="B9:B28"/>
-    <mergeCell ref="E9:E25"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E26:E28">
@@ -9030,53 +9307,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="102" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="90"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -9085,19 +9362,19 @@
       <c r="B7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="72">
+      <c r="A8" s="96">
         <v>6</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="99" t="s">
         <v>155</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -9106,190 +9383,190 @@
       <c r="D8" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="93">
         <f>COUNTIF($E25:$E27,"H")*3+COUNTIF($E25:$E27,"M")*2+COUNTIF($E25:$E27,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D16" s="23">
         <v>812345678</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="80"/>
+      <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="29" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="80"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="80"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
@@ -9301,8 +9578,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
@@ -9314,8 +9591,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="74"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
@@ -9327,17 +9604,17 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="72">
+      <c r="A29" s="96">
         <v>7</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="99" t="s">
         <v>177</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -9346,190 +9623,190 @@
       <c r="D29" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="93">
         <f>COUNTIF($E46:$E48,"H")*3+COUNTIF($E46:$E48,"M")*2+COUNTIF($E46:$E48,"L")*1</f>
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="79"/>
+      <c r="E30" s="94"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="95"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="95"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="95"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="80"/>
+      <c r="E35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="80"/>
+      <c r="E36" s="95"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="23">
         <v>114567892</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="95"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="80"/>
+      <c r="E38" s="95"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="95"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="80"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="80"/>
+      <c r="E41" s="95"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="80"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="29" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="95"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="80"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="80"/>
+      <c r="E45" s="95"/>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="6" t="s">
         <v>15</v>
       </c>
@@ -9541,8 +9818,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="6" t="s">
         <v>13</v>
       </c>
@@ -9554,8 +9831,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="74"/>
-      <c r="B48" s="77"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
@@ -9647,53 +9924,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="113" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="115"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="116"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -9702,19 +9979,19 @@
       <c r="B7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="102">
+      <c r="A8" s="118">
         <v>8</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="118" t="s">
         <v>186</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -9723,222 +10000,222 @@
       <c r="D8" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="121">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="122"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="34" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="28" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="43">
         <v>22345</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="106"/>
+      <c r="E16" s="122"/>
     </row>
     <row r="17" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="106"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="43">
         <v>1</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="106"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E20" s="122"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="106"/>
+      <c r="E21" s="122"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="106"/>
+      <c r="E22" s="122"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="106"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="106"/>
+      <c r="E24" s="122"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="106"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="122"/>
     </row>
     <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="34" t="s">
         <v>192</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="107"/>
+      <c r="E27" s="123"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="14" t="s">
         <v>67</v>
       </c>
@@ -9950,8 +10227,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="14" t="s">
         <v>68</v>
       </c>
@@ -9963,8 +10240,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="14" t="s">
         <v>69</v>
       </c>
@@ -9976,17 +10253,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="102">
+      <c r="A32" s="118">
         <v>9</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="118" t="s">
         <v>195</v>
       </c>
       <c r="C32" s="20" t="s">
@@ -9995,222 +10272,222 @@
       <c r="D32" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E32" s="121">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="106"/>
+      <c r="E33" s="122"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="106"/>
+      <c r="E34" s="122"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="106"/>
+      <c r="E35" s="122"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="122"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="106"/>
+      <c r="E37" s="122"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="34" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="122"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="28" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="43">
         <v>94865</v>
       </c>
-      <c r="E39" s="106"/>
+      <c r="E39" s="122"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="106"/>
+      <c r="E40" s="122"/>
     </row>
     <row r="41" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="122"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="43">
         <v>1</v>
       </c>
-      <c r="E42" s="106"/>
+      <c r="E42" s="122"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
-      <c r="B43" s="103"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="122"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="106"/>
+      <c r="E44" s="122"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="106"/>
+      <c r="E45" s="122"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
-      <c r="B46" s="103"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="106"/>
+      <c r="E46" s="122"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="106"/>
+      <c r="E47" s="122"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="103"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="106"/>
+      <c r="E48" s="122"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="103"/>
-      <c r="B49" s="103"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="106"/>
+      <c r="E49" s="122"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="106"/>
+      <c r="E50" s="122"/>
     </row>
     <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="103"/>
-      <c r="B51" s="103"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="34" t="s">
         <v>192</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="107"/>
+      <c r="E51" s="123"/>
     </row>
     <row r="52" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="103"/>
-      <c r="B52" s="103"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="14" t="s">
         <v>67</v>
       </c>
@@ -10222,8 +10499,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="103"/>
-      <c r="B53" s="103"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="14" t="s">
         <v>68</v>
       </c>
@@ -10235,8 +10512,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
+      <c r="A54" s="120"/>
+      <c r="B54" s="120"/>
       <c r="C54" s="14" t="s">
         <v>69</v>
       </c>
@@ -10369,60 +10646,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="102" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="90"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -10431,19 +10708,19 @@
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="72">
+      <c r="A9" s="96">
         <v>10</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="99" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -10452,122 +10729,122 @@
       <c r="D9" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="93">
         <f>COUNTIF($E20:$E22,"H")*3+COUNTIF($E20:$E22,"M")*2+COUNTIF($E20:$E22,"L")*1</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="80"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
@@ -10579,8 +10856,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
@@ -10592,8 +10869,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
@@ -10605,17 +10882,17 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="72">
+      <c r="A24" s="96">
         <v>11</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="99" t="s">
         <v>208</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -10624,122 +10901,122 @@
       <c r="D24" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="93">
         <f>COUNTIF($E35:$E37,"H")*3+COUNTIF($E35:$E37,"M")*2+COUNTIF($E35:$E37,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="94"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="80"/>
+      <c r="E28" s="95"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="95"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="24"/>
-      <c r="E30" s="80"/>
+      <c r="E30" s="95"/>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="95"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="95"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="95"/>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="6" t="s">
         <v>15</v>
       </c>
@@ -10751,8 +11028,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="6" t="s">
         <v>13</v>
       </c>
@@ -10764,8 +11041,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
@@ -10788,17 +11065,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A24:A37"/>
     <mergeCell ref="B24:B37"/>
     <mergeCell ref="E24:E34"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="E9:E19"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E20:E22">
@@ -10865,58 +11142,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="126"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="113" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="90"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10926,20 +11203,20 @@
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117">
+      <c r="A8" s="126">
         <v>12</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="129" t="s">
         <v>220</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -10948,81 +11225,81 @@
       <c r="D8" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="132">
         <f>COUNTIF($E15:$E17,"H")*3+COUNTIF($E15:$E17,"M")*2+COUNTIF($E15:$E17,"L")*1</f>
         <v>5</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="118"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="118"/>
-      <c r="B12" s="121"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="118"/>
-      <c r="B14" s="121"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="124"/>
+      <c r="E14" s="133"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="118"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
@@ -11034,8 +11311,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="118"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="14" t="s">
         <v>13</v>
       </c>
@@ -11047,8 +11324,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="119"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
@@ -11060,17 +11337,17 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="117">
+      <c r="A19" s="126">
         <v>12</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="129" t="s">
         <v>227</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -11079,80 +11356,80 @@
       <c r="D19" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="132">
         <f>COUNTIF($E26:$E28,"H")*3+COUNTIF($E26:$E28,"M")*2+COUNTIF($E26:$E28,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="80"/>
+      <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="80"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="80"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="121"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="124"/>
+      <c r="E25" s="133"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="121"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="14" t="s">
         <v>15</v>
       </c>
@@ -11164,8 +11441,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="118"/>
-      <c r="B27" s="121"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
@@ -11177,8 +11454,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="119"/>
-      <c r="B28" s="122"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
@@ -11263,53 +11540,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="113" t="str">
         <f>PROCESS</f>
         <v>COMMERCIAL BANK</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -11318,19 +11595,19 @@
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="131">
+      <c r="A8" s="140">
         <v>13</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="140" t="s">
         <v>237</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -11339,323 +11616,323 @@
       <c r="D8" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="121">
         <f>COUNTIF($E38:$E40,"H")*3+COUNTIF($E38:$E40,"M")*2+COUNTIF($E38:$E40,"L")*1</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="132"/>
-      <c r="B9" s="132"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="122"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="106"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="106"/>
+      <c r="E16" s="122"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="106"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="34" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="43"/>
-      <c r="E19" s="106"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="34" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="43"/>
-      <c r="E20" s="106"/>
+      <c r="E20" s="122"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="106"/>
+      <c r="E21" s="122"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="35" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="106"/>
+      <c r="E22" s="122"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="106"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="132"/>
-      <c r="B24" s="132"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="106"/>
+      <c r="E24" s="122"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="106"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="122"/>
     </row>
     <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="34" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="106"/>
+      <c r="E27" s="122"/>
     </row>
     <row r="28" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="106"/>
+      <c r="E28" s="122"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="106"/>
+      <c r="E29" s="122"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="132"/>
-      <c r="B30" s="132"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="106"/>
+      <c r="E30" s="122"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="132"/>
-      <c r="B31" s="132"/>
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="106"/>
+      <c r="E31" s="122"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="106"/>
+      <c r="E32" s="122"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="106"/>
+      <c r="E33" s="122"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="106"/>
+      <c r="E34" s="122"/>
     </row>
     <row r="35" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
+      <c r="A35" s="141"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="106"/>
+      <c r="E35" s="122"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="122"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="107"/>
+      <c r="E37" s="123"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="132"/>
-      <c r="B38" s="132"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="14" t="s">
         <v>43</v>
       </c>
@@ -11667,8 +11944,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="132"/>
-      <c r="B39" s="132"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="14" t="s">
         <v>44</v>
       </c>
@@ -11680,8 +11957,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="132"/>
-      <c r="B40" s="132"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
@@ -11693,17 +11970,17 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="131">
+      <c r="A42" s="140">
         <v>14</v>
       </c>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="140" t="s">
         <v>256</v>
       </c>
       <c r="C42" s="20" t="s">
@@ -11712,323 +11989,323 @@
       <c r="D42" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="105">
+      <c r="E42" s="121">
         <f>COUNTIF($E72:$E74,"H")*3+COUNTIF($E72:$E74,"M")*2+COUNTIF($E72:$E74,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="132"/>
-      <c r="B43" s="132"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="122"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="132"/>
-      <c r="B44" s="132"/>
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E44" s="106"/>
+      <c r="E44" s="122"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="132"/>
-      <c r="B45" s="132"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="106"/>
+      <c r="E45" s="122"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="132"/>
-      <c r="B46" s="132"/>
+      <c r="A46" s="141"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="E46" s="106"/>
+      <c r="E46" s="122"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="132"/>
-      <c r="B47" s="132"/>
+      <c r="A47" s="141"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E47" s="106"/>
+      <c r="E47" s="122"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="132"/>
-      <c r="B48" s="132"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="106"/>
+      <c r="E48" s="122"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="132"/>
-      <c r="B49" s="132"/>
+      <c r="A49" s="141"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="43"/>
-      <c r="E49" s="106"/>
+      <c r="E49" s="122"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
+      <c r="A50" s="141"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="43"/>
-      <c r="E50" s="106"/>
+      <c r="E50" s="122"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="132"/>
-      <c r="B51" s="132"/>
+      <c r="A51" s="141"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="43"/>
-      <c r="E51" s="106"/>
+      <c r="E51" s="122"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="132"/>
-      <c r="B52" s="132"/>
+      <c r="A52" s="141"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E52" s="106"/>
+      <c r="E52" s="122"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="132"/>
-      <c r="B53" s="132"/>
+      <c r="A53" s="141"/>
+      <c r="B53" s="141"/>
       <c r="C53" s="34" t="s">
         <v>104</v>
       </c>
       <c r="D53" s="43"/>
-      <c r="E53" s="106"/>
+      <c r="E53" s="122"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="132"/>
-      <c r="B54" s="132"/>
+      <c r="A54" s="141"/>
+      <c r="B54" s="141"/>
       <c r="C54" s="34" t="s">
         <v>103</v>
       </c>
       <c r="D54" s="43"/>
-      <c r="E54" s="106"/>
+      <c r="E54" s="122"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="132"/>
-      <c r="B55" s="132"/>
+      <c r="A55" s="141"/>
+      <c r="B55" s="141"/>
       <c r="C55" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="106"/>
+      <c r="E55" s="122"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="132"/>
-      <c r="B56" s="132"/>
+      <c r="A56" s="141"/>
+      <c r="B56" s="141"/>
       <c r="C56" s="35" t="s">
         <v>106</v>
       </c>
       <c r="D56" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="106"/>
+      <c r="E56" s="122"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="132"/>
-      <c r="B57" s="132"/>
+      <c r="A57" s="141"/>
+      <c r="B57" s="141"/>
       <c r="C57" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="106"/>
+      <c r="E57" s="122"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="132"/>
-      <c r="B58" s="132"/>
+      <c r="A58" s="141"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="106"/>
+      <c r="E58" s="122"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="132"/>
-      <c r="B59" s="132"/>
+      <c r="A59" s="141"/>
+      <c r="B59" s="141"/>
       <c r="C59" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="106"/>
+      <c r="E59" s="122"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="132"/>
-      <c r="B60" s="132"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="141"/>
       <c r="C60" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="E60" s="106"/>
+      <c r="E60" s="122"/>
     </row>
     <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
+      <c r="A61" s="141"/>
+      <c r="B61" s="141"/>
       <c r="C61" s="34" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="106"/>
+      <c r="E61" s="122"/>
     </row>
     <row r="62" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="132"/>
-      <c r="B62" s="132"/>
+      <c r="A62" s="141"/>
+      <c r="B62" s="141"/>
       <c r="C62" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="E62" s="106"/>
+      <c r="E62" s="122"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="132"/>
-      <c r="B63" s="132"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="141"/>
       <c r="C63" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="E63" s="106"/>
+      <c r="E63" s="122"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="132"/>
-      <c r="B64" s="132"/>
+      <c r="A64" s="141"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E64" s="106"/>
+      <c r="E64" s="122"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="132"/>
-      <c r="B65" s="132"/>
+      <c r="A65" s="141"/>
+      <c r="B65" s="141"/>
       <c r="C65" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="106"/>
+      <c r="E65" s="122"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
+      <c r="A66" s="141"/>
+      <c r="B66" s="141"/>
       <c r="C66" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="106"/>
+      <c r="E66" s="122"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
+      <c r="A67" s="141"/>
+      <c r="B67" s="141"/>
       <c r="C67" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D67" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="106"/>
+      <c r="E67" s="122"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="132"/>
-      <c r="B68" s="132"/>
+      <c r="A68" s="141"/>
+      <c r="B68" s="141"/>
       <c r="C68" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="106"/>
+      <c r="E68" s="122"/>
     </row>
     <row r="69" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="132"/>
-      <c r="B69" s="132"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="141"/>
       <c r="C69" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D69" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E69" s="106"/>
+      <c r="E69" s="122"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="132"/>
-      <c r="B70" s="132"/>
+      <c r="A70" s="141"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="E70" s="106"/>
+      <c r="E70" s="122"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="132"/>
-      <c r="B71" s="132"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D71" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="107"/>
+      <c r="E71" s="123"/>
     </row>
     <row r="72" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="132"/>
-      <c r="B72" s="132"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="141"/>
       <c r="C72" s="14" t="s">
         <v>43</v>
       </c>
@@ -12040,8 +12317,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="132"/>
-      <c r="B73" s="132"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="14" t="s">
         <v>44</v>
       </c>
@@ -12053,8 +12330,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="132"/>
-      <c r="B74" s="132"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="141"/>
       <c r="C74" s="14" t="s">
         <v>45</v>
       </c>
@@ -12130,17 +12407,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:A40"/>
-    <mergeCell ref="B8:B40"/>
     <mergeCell ref="A42:A74"/>
     <mergeCell ref="B42:B74"/>
     <mergeCell ref="E42:E71"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="E8:E37"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:A40"/>
+    <mergeCell ref="B8:B40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E38:E40">
